--- a/trunk/2.1-402/store.xlsx
+++ b/trunk/2.1-402/store.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
   <si>
     <t>网上银行</t>
   </si>
@@ -67,25 +67,41 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2013/12/2516:25:46</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>中间业务平台</t>
   </si>
   <si>
     <t>网银扣款</t>
   </si>
   <si>
-    <t>2013/12/2611:27:24</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>借张钺的钱</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2013/12/2611:27:24</t>
+    <t>现金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>借爸的钱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发商</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大修基金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地证/房产证工本费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预存款</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -140,11 +156,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -448,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -459,12 +478,12 @@
     <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35.375" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
@@ -500,8 +519,8 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>16</v>
+      <c r="A2" s="2">
+        <v>41633.684560185182</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -532,11 +551,11 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>19</v>
+      <c r="A3" s="2">
+        <v>41634.477361111109</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -560,15 +579,15 @@
         <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>21</v>
+      <c r="A4" s="2">
+        <v>41634.477361111109</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -582,9 +601,6 @@
       <c r="F4">
         <v>3</v>
       </c>
-      <c r="G4">
-        <v>33739.800000000003</v>
-      </c>
       <c r="H4" t="s">
         <v>3</v>
       </c>
@@ -592,10 +608,102 @@
         <v>15</v>
       </c>
       <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" t="s">
         <v>18</v>
       </c>
-      <c r="K4" t="s">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>41676.477361111109</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>62000</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
         <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>41678.477361111109</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>10048</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>41678.477361111109</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>850</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>41678.560694444444</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>50000</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
